--- a/natmiOut/OldD7/LR-pairs_lrc2p/Mdk-Itgb1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Mdk-Itgb1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.25267909965834</v>
+        <v>1.324023666666666</v>
       </c>
       <c r="H2">
-        <v>1.25267909965834</v>
+        <v>3.972071</v>
       </c>
       <c r="I2">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="J2">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N2">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O2">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P2">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q2">
-        <v>177.4667465983729</v>
+        <v>203.2760524694102</v>
       </c>
       <c r="R2">
-        <v>177.4667465983729</v>
+        <v>1829.484472224692</v>
       </c>
       <c r="S2">
-        <v>0.004572256872314345</v>
+        <v>0.004815544676122433</v>
       </c>
       <c r="T2">
-        <v>0.004572256872314345</v>
+        <v>0.004815544676122434</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.25267909965834</v>
+        <v>1.324023666666666</v>
       </c>
       <c r="H3">
-        <v>1.25267909965834</v>
+        <v>3.972071</v>
       </c>
       <c r="I3">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="J3">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N3">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q3">
-        <v>211.2243844230607</v>
+        <v>223.4948012569631</v>
       </c>
       <c r="R3">
-        <v>211.2243844230607</v>
+        <v>2011.453211312668</v>
       </c>
       <c r="S3">
-        <v>0.00544198934048392</v>
+        <v>0.005294520369023639</v>
       </c>
       <c r="T3">
-        <v>0.00544198934048392</v>
+        <v>0.005294520369023639</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.25267909965834</v>
+        <v>1.324023666666666</v>
       </c>
       <c r="H4">
-        <v>1.25267909965834</v>
+        <v>3.972071</v>
       </c>
       <c r="I4">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="J4">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N4">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q4">
-        <v>77.15700780024356</v>
+        <v>90.15319956431887</v>
       </c>
       <c r="R4">
-        <v>77.15700780024356</v>
+        <v>811.37879607887</v>
       </c>
       <c r="S4">
-        <v>0.00198787471976516</v>
+        <v>0.002135700467041929</v>
       </c>
       <c r="T4">
-        <v>0.00198787471976516</v>
+        <v>0.00213570046704193</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.25267909965834</v>
+        <v>1.324023666666666</v>
       </c>
       <c r="H5">
-        <v>1.25267909965834</v>
+        <v>3.972071</v>
       </c>
       <c r="I5">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="J5">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N5">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q5">
-        <v>100.4422784633541</v>
+        <v>123.8791933685943</v>
       </c>
       <c r="R5">
-        <v>100.4422784633541</v>
+        <v>1114.912740317349</v>
       </c>
       <c r="S5">
-        <v>0.002587796907182343</v>
+        <v>0.002934658474825737</v>
       </c>
       <c r="T5">
-        <v>0.002587796907182343</v>
+        <v>0.002934658474825737</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>80.0823512563625</v>
+        <v>81.17653533333333</v>
       </c>
       <c r="H6">
-        <v>80.0823512563625</v>
+        <v>243.529606</v>
       </c>
       <c r="I6">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270077</v>
       </c>
       <c r="J6">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270075</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N6">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O6">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P6">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q6">
-        <v>11345.24743111863</v>
+        <v>12462.95370025128</v>
       </c>
       <c r="R6">
-        <v>11345.24743111863</v>
+        <v>112166.5833022615</v>
       </c>
       <c r="S6">
-        <v>0.292299185787375</v>
+        <v>0.2952433875556338</v>
       </c>
       <c r="T6">
-        <v>0.292299185787375</v>
+        <v>0.2952433875556338</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>80.0823512563625</v>
+        <v>81.17653533333333</v>
       </c>
       <c r="H7">
-        <v>80.0823512563625</v>
+        <v>243.529606</v>
       </c>
       <c r="I7">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270077</v>
       </c>
       <c r="J7">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270075</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N7">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q7">
-        <v>13503.33485398618</v>
+        <v>13702.57502777683</v>
       </c>
       <c r="R7">
-        <v>13503.33485398618</v>
+        <v>123323.1752499915</v>
       </c>
       <c r="S7">
-        <v>0.3479001940855223</v>
+        <v>0.3246096203787147</v>
       </c>
       <c r="T7">
-        <v>0.3479001940855223</v>
+        <v>0.3246096203787146</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>80.0823512563625</v>
+        <v>81.17653533333333</v>
       </c>
       <c r="H8">
-        <v>80.0823512563625</v>
+        <v>243.529606</v>
       </c>
       <c r="I8">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270077</v>
       </c>
       <c r="J8">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270075</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N8">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q8">
-        <v>4932.55982496576</v>
+        <v>5527.336537926424</v>
       </c>
       <c r="R8">
-        <v>4932.55982496576</v>
+        <v>49746.02884133782</v>
       </c>
       <c r="S8">
-        <v>0.1270825717498566</v>
+        <v>0.1309408349631054</v>
       </c>
       <c r="T8">
-        <v>0.1270825717498566</v>
+        <v>0.1309408349631054</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>80.0823512563625</v>
+        <v>81.17653533333333</v>
       </c>
       <c r="H9">
-        <v>80.0823512563625</v>
+        <v>243.529606</v>
       </c>
       <c r="I9">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270077</v>
       </c>
       <c r="J9">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270075</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N9">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q9">
-        <v>6421.16071632835</v>
+        <v>7595.093630665613</v>
       </c>
       <c r="R9">
-        <v>6421.16071632835</v>
+        <v>68355.84267599051</v>
       </c>
       <c r="S9">
-        <v>0.1654349154205793</v>
+        <v>0.1799253392295538</v>
       </c>
       <c r="T9">
-        <v>0.1654349154205793</v>
+        <v>0.1799253392295538</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.12026610726167</v>
+        <v>1.192675</v>
       </c>
       <c r="H10">
-        <v>1.12026610726167</v>
+        <v>3.578025</v>
       </c>
       <c r="I10">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="J10">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N10">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O10">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P10">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q10">
-        <v>158.7078298299832</v>
+        <v>183.1102207480333</v>
       </c>
       <c r="R10">
-        <v>158.7078298299832</v>
+        <v>1647.9919867323</v>
       </c>
       <c r="S10">
-        <v>0.004088951758790453</v>
+        <v>0.004337822571596272</v>
       </c>
       <c r="T10">
-        <v>0.004088951758790453</v>
+        <v>0.004337822571596272</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.12026610726167</v>
+        <v>1.192675</v>
       </c>
       <c r="H11">
-        <v>1.12026610726167</v>
+        <v>3.578025</v>
       </c>
       <c r="I11">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="J11">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N11">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q11">
-        <v>188.897155672912</v>
+        <v>201.3231853779667</v>
       </c>
       <c r="R11">
-        <v>188.897155672912</v>
+        <v>1811.9086684017</v>
       </c>
       <c r="S11">
-        <v>0.004866750164416568</v>
+        <v>0.004769281879245313</v>
       </c>
       <c r="T11">
-        <v>0.004866750164416568</v>
+        <v>0.004769281879245312</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.12026610726167</v>
+        <v>1.192675</v>
       </c>
       <c r="H12">
-        <v>1.12026610726167</v>
+        <v>3.578025</v>
       </c>
       <c r="I12">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="J12">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N12">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q12">
-        <v>69.00121571431352</v>
+        <v>81.20962638158333</v>
       </c>
       <c r="R12">
-        <v>69.00121571431352</v>
+        <v>730.88663743425</v>
       </c>
       <c r="S12">
-        <v>0.001777748726423698</v>
+        <v>0.001923830078462268</v>
       </c>
       <c r="T12">
-        <v>0.001777748726423698</v>
+        <v>0.001923830078462269</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.12026610726167</v>
+        <v>1.192675</v>
       </c>
       <c r="H13">
-        <v>1.12026610726167</v>
+        <v>3.578025</v>
       </c>
       <c r="I13">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="J13">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N13">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O13">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P13">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q13">
-        <v>89.82514382919301</v>
+        <v>111.589861020275</v>
       </c>
       <c r="R13">
-        <v>89.82514382919301</v>
+        <v>1004.308749182475</v>
       </c>
       <c r="S13">
-        <v>0.002314256834319054</v>
+        <v>0.00264352812157395</v>
       </c>
       <c r="T13">
-        <v>0.002314256834319054</v>
+        <v>0.00264352812157395</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.40393272619235</v>
+        <v>3.525915333333334</v>
       </c>
       <c r="H14">
-        <v>3.40393272619235</v>
+        <v>10.577746</v>
       </c>
       <c r="I14">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510095</v>
       </c>
       <c r="J14">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510094</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N14">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O14">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P14">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q14">
-        <v>482.2343301822843</v>
+        <v>541.3303163271991</v>
       </c>
       <c r="R14">
-        <v>482.2343301822843</v>
+        <v>4871.972846944792</v>
       </c>
       <c r="S14">
-        <v>0.01242429510037612</v>
+        <v>0.01282394207849643</v>
       </c>
       <c r="T14">
-        <v>0.01242429510037612</v>
+        <v>0.01282394207849643</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.40393272619235</v>
+        <v>3.525915333333334</v>
       </c>
       <c r="H15">
-        <v>3.40393272619235</v>
+        <v>10.577746</v>
       </c>
       <c r="I15">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510095</v>
       </c>
       <c r="J15">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510094</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N15">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P15">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q15">
-        <v>573.9647088417064</v>
+        <v>595.1734598945077</v>
       </c>
       <c r="R15">
-        <v>573.9647088417064</v>
+        <v>5356.561139050569</v>
       </c>
       <c r="S15">
-        <v>0.01478763844364888</v>
+        <v>0.01409946893078153</v>
       </c>
       <c r="T15">
-        <v>0.01478763844364888</v>
+        <v>0.01409946893078153</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.40393272619235</v>
+        <v>3.525915333333334</v>
       </c>
       <c r="H16">
-        <v>3.40393272619235</v>
+        <v>10.577746</v>
       </c>
       <c r="I16">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510095</v>
       </c>
       <c r="J16">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510094</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N16">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O16">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P16">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q16">
-        <v>209.6604501328074</v>
+        <v>240.0807150926245</v>
       </c>
       <c r="R16">
-        <v>209.6604501328074</v>
+        <v>2160.72643583362</v>
       </c>
       <c r="S16">
-        <v>0.005401696105590504</v>
+        <v>0.005687435363680786</v>
       </c>
       <c r="T16">
-        <v>0.005401696105590504</v>
+        <v>0.005687435363680786</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.40393272619235</v>
+        <v>3.525915333333334</v>
       </c>
       <c r="H17">
-        <v>3.40393272619235</v>
+        <v>10.577746</v>
       </c>
       <c r="I17">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510095</v>
       </c>
       <c r="J17">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510094</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N17">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O17">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P17">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q17">
-        <v>272.9340330240896</v>
+        <v>329.8940633583527</v>
       </c>
       <c r="R17">
-        <v>272.9340330240896</v>
+        <v>2969.046570225174</v>
       </c>
       <c r="S17">
-        <v>0.007031877983355702</v>
+        <v>0.007815084862142207</v>
       </c>
       <c r="T17">
-        <v>0.007031877983355702</v>
+        <v>0.007815084862142205</v>
       </c>
     </row>
   </sheetData>
